--- a/downloaded_files/EPES201_Lecture-35876.xlsx
+++ b/downloaded_files/EPES201_Lecture-35876.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -190,6 +190,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Hesham Mohamed Abdelrahman Selim Ataia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود محمد عبدالحكيم محمد الامين الصادق العايدى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Mohamed Abd El Hakeem</x:t>
   </x:si>
   <x:si>
     <x:t>1230253</x:t>
@@ -350,7 +359,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -650,7 +659,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -658,7 +667,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.140625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="39.520625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="49.380625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1315,7 +1324,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.6129081829</x:v>
+        <x:v>45918.7153993866</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1347,7 +1356,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45916.7669681366</x:v>
+        <x:v>45912.6129081829</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1379,7 +1388,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.6084797454</x:v>
+        <x:v>45916.7669681366</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1411,7 +1420,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.8922424769</x:v>
+        <x:v>45912.6084797454</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1443,7 +1452,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.8991826042</x:v>
+        <x:v>45912.8922424769</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1460,6 +1469,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45912.8991826042</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Lecture-35876.xlsx
+++ b/downloaded_files/EPES201_Lecture-35876.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -154,6 +154,15 @@
   </x:si>
   <x:si>
     <x:t>Sama Tarik Mahmoud Gaballah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله اشرف رأفت حسنين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Ashraf Raafat Hassanein</x:t>
   </x:si>
   <x:si>
     <x:t>1240198</x:t>
@@ -359,7 +368,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -659,7 +668,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1196,7 +1205,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1228,7 +1237,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.8928851042</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1260,7 +1269,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.6111439815</x:v>
+        <x:v>45912.8928851042</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1292,7 +1301,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45912.6111439815</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1324,7 +1333,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.7153993866</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1356,7 +1365,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.6129081829</x:v>
+        <x:v>45918.7153993866</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1388,7 +1397,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45916.7669681366</x:v>
+        <x:v>45912.6129081829</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1420,7 +1429,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.6084797454</x:v>
+        <x:v>45916.7669681366</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1452,7 +1461,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.8922424769</x:v>
+        <x:v>45912.6084797454</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1484,7 +1493,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.8991826042</x:v>
+        <x:v>45912.8922424769</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1501,6 +1510,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45912.8991826042</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Lecture-35876.xlsx
+++ b/downloaded_files/EPES201_Lecture-35876.xlsx
@@ -51,15 +51,6 @@
     <x:t>Abu Bakr Atef Mahmoud Sayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد عاطف مرعى عبد النعيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Atef Merhy Abdel Naim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240021</x:t>
   </x:si>
   <x:si>
@@ -199,6 +190,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Hesham Mohamed Abdelrahman Selim Ataia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود احمد محمود احمد شكرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Ahmed Mahmoud Ahmed shokry</x:t>
   </x:si>
   <x:si>
     <x:t>1240184</x:t>
@@ -823,7 +823,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45912.6106886227</x:v>
+        <x:v>45912.8933942477</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -855,7 +855,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.8933942477</x:v>
+        <x:v>45912.6091764236</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -887,7 +887,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.6091764236</x:v>
+        <x:v>45912.6115738079</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -919,7 +919,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.6115738079</x:v>
+        <x:v>45912.5984533218</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -951,7 +951,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.5984533218</x:v>
+        <x:v>45912.6088537847</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -983,7 +983,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.6088537847</x:v>
+        <x:v>45914.4389700579</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1015,7 +1015,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.4389700579</x:v>
+        <x:v>45912.9408006134</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1047,7 +1047,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.9408006134</x:v>
+        <x:v>45912.5991975347</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1075,11 +1075,9 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
+      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45912.5991975347</x:v>
+        <x:v>45918.3505082176</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1102,14 +1100,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45918.3505082176</x:v>
+        <x:v>45912.8907292824</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1141,7 +1141,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.8907292824</x:v>
+        <x:v>45914.4494589468</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1173,7 +1173,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.4494589468</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1205,7 +1205,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1237,7 +1237,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45912.8928851042</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1269,7 +1269,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.8928851042</x:v>
+        <x:v>45912.6111439815</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1301,7 +1301,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6111439815</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1333,7 +1333,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45920.0017404745</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>

--- a/downloaded_files/EPES201_Lecture-35876.xlsx
+++ b/downloaded_files/EPES201_Lecture-35876.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -217,6 +217,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Karim Mohamed Ahmed Zayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى كمال محمد جمال عبدالحميد خالد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moustafa Kamal Mohamed Gamal Abelhamid Khalid</x:t>
   </x:si>
   <x:si>
     <x:t>1230259</x:t>
@@ -368,7 +377,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -668,7 +677,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1429,7 +1438,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45916.7669681366</x:v>
+        <x:v>45921.5442414699</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1461,7 +1470,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.6084797454</x:v>
+        <x:v>45916.7669681366</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1493,7 +1502,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.8922424769</x:v>
+        <x:v>45912.6084797454</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.8991826042</x:v>
+        <x:v>45912.8922424769</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1542,6 +1551,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45912.8991826042</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Lecture-35876.xlsx
+++ b/downloaded_files/EPES201_Lecture-35876.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -154,6 +154,15 @@
   </x:si>
   <x:si>
     <x:t>Abdullah Ashraf Raafat Hassanein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر هانى محمد حسن محمد سعيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Hani Mohammed Hassan Mohammed Saeed</x:t>
   </x:si>
   <x:si>
     <x:t>1240198</x:t>
@@ -377,7 +386,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -677,7 +686,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1214,7 +1223,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1246,7 +1255,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.8928851042</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1278,7 +1287,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.6111439815</x:v>
+        <x:v>45912.8928851042</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1310,7 +1319,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45912.6111439815</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1342,7 +1351,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45920.0017404745</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1374,7 +1383,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.7153993866</x:v>
+        <x:v>45920.0017404745</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1406,7 +1415,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.6129081829</x:v>
+        <x:v>45918.7153993866</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1438,7 +1447,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.5442414699</x:v>
+        <x:v>45912.6129081829</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1470,7 +1479,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45916.7669681366</x:v>
+        <x:v>45921.5442414699</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.6084797454</x:v>
+        <x:v>45916.7669681366</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.8922424769</x:v>
+        <x:v>45912.6084797454</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.8991826042</x:v>
+        <x:v>45912.8922424769</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1583,6 +1592,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45912.8991826042</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Lecture-35876.xlsx
+++ b/downloaded_files/EPES201_Lecture-35876.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Abu Bakr Atef Mahmoud Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد خالد مقبولي محمد عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed kahled makbouly mohamed abdo</x:t>
   </x:si>
   <x:si>
     <x:t>1240021</x:t>
@@ -386,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -686,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -841,7 +850,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45912.8933942477</x:v>
+        <x:v>45925.438408831</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -873,7 +882,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.6091764236</x:v>
+        <x:v>45912.8933942477</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -905,7 +914,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.6115738079</x:v>
+        <x:v>45912.6091764236</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -937,7 +946,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.5984533218</x:v>
+        <x:v>45912.6115738079</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -969,7 +978,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.6088537847</x:v>
+        <x:v>45912.5984533218</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1001,7 +1010,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.4389700579</x:v>
+        <x:v>45912.6088537847</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1033,7 +1042,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.9408006134</x:v>
+        <x:v>45914.4389700579</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1065,7 +1074,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.5991975347</x:v>
+        <x:v>45912.9408006134</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1093,9 +1102,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45918.3505082176</x:v>
+        <x:v>45912.5991975347</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1118,16 +1129,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45912.8907292824</x:v>
+        <x:v>45918.3505082176</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1159,7 +1168,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.4494589468</x:v>
+        <x:v>45912.8907292824</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1191,7 +1200,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45914.4494589468</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1223,7 +1232,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45924.5387831829</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1255,7 +1264,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1287,7 +1296,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.8928851042</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1319,7 +1328,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6111439815</x:v>
+        <x:v>45912.8928851042</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1351,7 +1360,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45912.6111439815</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1383,7 +1392,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45920.0017404745</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1415,7 +1424,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.7153993866</x:v>
+        <x:v>45920.0017404745</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1447,7 +1456,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.6129081829</x:v>
+        <x:v>45918.7153993866</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1479,7 +1488,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.5442414699</x:v>
+        <x:v>45912.6129081829</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1511,7 +1520,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45916.7669681366</x:v>
+        <x:v>45921.5442414699</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1543,7 +1552,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.6084797454</x:v>
+        <x:v>45916.7669681366</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1575,7 +1584,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.8922424769</x:v>
+        <x:v>45912.6084797454</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1607,7 +1616,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.8991826042</x:v>
+        <x:v>45912.8922424769</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1624,6 +1633,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45912.8991826042</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Lecture-35876.xlsx
+++ b/downloaded_files/EPES201_Lecture-35876.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,6 +114,15 @@
     <x:t>Hassan Mohy Hassan Abdelmegeed Hassan</x:t>
   </x:si>
   <x:si>
+    <x:t>1240303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزه محمد حلمي محمد مرجان حجازى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza Mohamed Helmy Mohamed Morgan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230185</x:t>
   </x:si>
   <x:si>
@@ -163,6 +172,15 @@
   </x:si>
   <x:si>
     <x:t>Abdullah Ashraf Raafat Hassanein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد عبد المنجى مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali mohamed abdelmongy mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>4250208</x:t>
@@ -395,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1074,7 +1092,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.9408006134</x:v>
+        <x:v>45925.7889608449</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1106,7 +1124,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.5991975347</x:v>
+        <x:v>45912.9408006134</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1134,9 +1152,11 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45918.3505082176</x:v>
+        <x:v>45912.5991975347</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1159,16 +1179,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45912.8907292824</x:v>
+        <x:v>45918.3505082176</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1200,7 +1218,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.4494589468</x:v>
+        <x:v>45912.8907292824</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1232,7 +1250,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45914.4494589468</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1264,7 +1282,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45924.5387831829</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1296,7 +1314,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45925.9122760069</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1328,7 +1346,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.8928851042</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1360,7 +1378,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.6111439815</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1392,7 +1410,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45912.8928851042</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1424,7 +1442,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45920.0017404745</x:v>
+        <x:v>45912.6111439815</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1456,7 +1474,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.7153993866</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1488,7 +1506,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.6129081829</x:v>
+        <x:v>45920.0017404745</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1520,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45921.5442414699</x:v>
+        <x:v>45918.7153993866</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1552,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45916.7669681366</x:v>
+        <x:v>45912.6129081829</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1584,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.6084797454</x:v>
+        <x:v>45921.5442414699</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1616,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.8922424769</x:v>
+        <x:v>45916.7669681366</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1648,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.8991826042</x:v>
+        <x:v>45912.6084797454</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1665,6 +1683,70 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45912.8922424769</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45912.8991826042</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Lecture-35876.xlsx
+++ b/downloaded_files/EPES201_Lecture-35876.xlsx
@@ -105,6 +105,15 @@
     <x:t>Jana Mohamed Sayed Abdelaziz</x:t>
   </x:si>
   <x:si>
+    <x:t>1240294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنى حسام الدين احمد عبدالفتاح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jana HossamEldin Ahmed Abdelfattah</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240193</x:t>
   </x:si>
   <x:si>
@@ -253,15 +262,6 @@
   </x:si>
   <x:si>
     <x:t>Marwan Karim Mohamed Ahmed Zayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240374</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى كمال محمد جمال عبدالحميد خالد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moustafa Kamal Mohamed Gamal Abelhamid Khalid</x:t>
   </x:si>
   <x:si>
     <x:t>1230259</x:t>
@@ -1060,7 +1060,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.4389700579</x:v>
+        <x:v>45927.4454287384</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1092,7 +1092,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45925.7889608449</x:v>
+        <x:v>45914.4389700579</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1124,7 +1124,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.9408006134</x:v>
+        <x:v>45925.7889608449</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1156,7 +1156,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.5991975347</x:v>
+        <x:v>45912.9408006134</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1184,9 +1184,11 @@
       <x:c r="C14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45918.3505082176</x:v>
+        <x:v>45912.5991975347</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1209,16 +1211,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45912.8907292824</x:v>
+        <x:v>45918.3505082176</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1250,7 +1250,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.4494589468</x:v>
+        <x:v>45912.8907292824</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1282,7 +1282,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45914.4494589468</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1314,7 +1314,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45925.9122760069</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1346,7 +1346,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45924.5387831829</x:v>
+        <x:v>45925.9122760069</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1378,7 +1378,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1410,7 +1410,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.8928851042</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1442,7 +1442,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.6111439815</x:v>
+        <x:v>45912.8928851042</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1474,7 +1474,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45912.6111439815</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1506,7 +1506,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45920.0017404745</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1538,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45918.7153993866</x:v>
+        <x:v>45920.0017404745</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.6129081829</x:v>
+        <x:v>45918.7153993866</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1602,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45921.5442414699</x:v>
+        <x:v>45927.6668926736</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>

--- a/downloaded_files/EPES201_Lecture-35876.xlsx
+++ b/downloaded_files/EPES201_Lecture-35876.xlsx
@@ -165,15 +165,6 @@
     <x:t>Sarah Mohamed wael Farouk Mohamed Abdelhady</x:t>
   </x:si>
   <x:si>
-    <x:t>1240075</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سما طارق محمود جاب الله سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sama Tarik Mahmoud Gaballah</x:t>
-  </x:si>
-  <x:si>
     <x:t>4250179</x:t>
   </x:si>
   <x:si>
@@ -190,6 +181,15 @@
   </x:si>
   <x:si>
     <x:t>Ali mohamed abdelmongy mostafa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omar mohamed salaheldeen</x:t>
   </x:si>
   <x:si>
     <x:t>4250208</x:t>
@@ -1282,7 +1282,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.4494589468</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1314,7 +1314,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45925.9122760069</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1346,7 +1346,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45925.9122760069</x:v>
+        <x:v>45927.7643141204</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>

--- a/downloaded_files/EPES201_Lecture-35876.xlsx
+++ b/downloaded_files/EPES201_Lecture-35876.xlsx
@@ -1602,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.6668926736</x:v>
+        <x:v>45928.2687730324</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>

--- a/downloaded_files/EPES201_Lecture-35876.xlsx
+++ b/downloaded_files/EPES201_Lecture-35876.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -228,6 +228,15 @@
     <x:t>Loujayna Hesham Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>4250175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ايمن نبيل ابراهيم حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ayman Nabil Ibrahim Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240140</x:t>
   </x:si>
   <x:si>
@@ -262,6 +271,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Karim Mohamed Ahmed Zayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى كمال محمد جمال عبدالحميد خالد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moustafa Kamal Mohamed Gamal Abelhamid Khalid</x:t>
   </x:si>
   <x:si>
     <x:t>1230259</x:t>
@@ -413,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1506,7 +1524,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45929.5640316782</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1538,7 +1556,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45920.0017404745</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,7 +1588,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45918.7153993866</x:v>
+        <x:v>45920.0017404745</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1602,7 +1620,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45928.2687730324</x:v>
+        <x:v>45918.7153993866</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1634,7 +1652,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45916.7669681366</x:v>
+        <x:v>45929.4464447569</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,7 +1684,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.6084797454</x:v>
+        <x:v>45929.3779826389</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1698,7 +1716,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.8922424769</x:v>
+        <x:v>45916.7669681366</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1730,7 +1748,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.8991826042</x:v>
+        <x:v>45912.6084797454</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1747,6 +1765,70 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45912.8922424769</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45912.8991826042</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Lecture-35876.xlsx
+++ b/downloaded_files/EPES201_Lecture-35876.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Abu Bakr Atef Mahmoud Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد ايمن احمد احمد الرملي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Ayman Ahmed Ahmed Alramly</x:t>
   </x:si>
   <x:si>
     <x:t>1240283</x:t>
@@ -431,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -886,7 +895,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45925.438408831</x:v>
+        <x:v>45930.3388559375</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -918,7 +927,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.8933942477</x:v>
+        <x:v>45925.438408831</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -950,7 +959,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.6091764236</x:v>
+        <x:v>45912.8933942477</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -982,7 +991,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.6115738079</x:v>
+        <x:v>45912.6091764236</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1014,7 +1023,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.5984533218</x:v>
+        <x:v>45912.6115738079</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1046,7 +1055,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.6088537847</x:v>
+        <x:v>45912.5984533218</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1078,7 +1087,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4454287384</x:v>
+        <x:v>45912.6088537847</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1110,7 +1119,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.4389700579</x:v>
+        <x:v>45927.4454287384</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1142,7 +1151,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45925.7889608449</x:v>
+        <x:v>45914.4389700579</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.9408006134</x:v>
+        <x:v>45925.7889608449</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.5991975347</x:v>
+        <x:v>45912.9408006134</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1234,9 +1243,11 @@
       <x:c r="C15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.3505082176</x:v>
+        <x:v>45912.5991975347</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1259,16 +1270,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45912.8907292824</x:v>
+        <x:v>45918.3505082176</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1300,7 +1309,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45912.8907292824</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1332,7 +1341,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45925.9122760069</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1364,7 +1373,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.7643141204</x:v>
+        <x:v>45925.9122760069</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1396,7 +1405,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45924.5387831829</x:v>
+        <x:v>45927.7643141204</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1428,7 +1437,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1460,7 +1469,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.8928851042</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1492,7 +1501,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.6111439815</x:v>
+        <x:v>45912.8928851042</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1524,7 +1533,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45929.5640316782</x:v>
+        <x:v>45912.6111439815</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1556,7 +1565,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45929.5640316782</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1588,7 +1597,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45920.0017404745</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1620,7 +1629,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45918.7153993866</x:v>
+        <x:v>45920.0017404745</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1652,7 +1661,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45929.4464447569</x:v>
+        <x:v>45918.7153993866</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1684,7 +1693,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45929.3779826389</x:v>
+        <x:v>45929.4464447569</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45916.7669681366</x:v>
+        <x:v>45929.3779826389</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.6084797454</x:v>
+        <x:v>45916.7669681366</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.8922424769</x:v>
+        <x:v>45912.6084797454</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.8991826042</x:v>
+        <x:v>45912.8922424769</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1829,6 +1838,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45912.8991826042</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Lecture-35876.xlsx
+++ b/downloaded_files/EPES201_Lecture-35876.xlsx
@@ -1055,7 +1055,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.5984533218</x:v>
+        <x:v>45931.3040679745</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>

--- a/downloaded_files/EPES201_Lecture-35876.xlsx
+++ b/downloaded_files/EPES201_Lecture-35876.xlsx
@@ -153,7 +153,7 @@
     <x:t>1240194</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">زياد عمر احمد عمر </x:t>
+    <x:t>زياد عمر احمد عمر محمود السيد</x:t>
   </x:si>
   <x:si>
     <x:t>ZEYAD OMAR AHMED OMAR</x:t>

--- a/downloaded_files/EPES201_Lecture-35876.xlsx
+++ b/downloaded_files/EPES201_Lecture-35876.xlsx
@@ -315,7 +315,7 @@
     <x:t>هنا ايمن عبداللطيف عبدالحميد احمد سلام</x:t>
   </x:si>
   <x:si>
-    <x:t>Hana Ayman Abdellatif</x:t>
+    <x:t>Hana Ayman Abdellatif Abdelhamed Ahmed Sallam</x:t>
   </x:si>
   <x:si>
     <x:t>1230284</x:t>
